--- a/plantillas/area-lista.xlsx
+++ b/plantillas/area-lista.xlsx
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -130,6 +130,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -441,12 +444,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
